--- a/data20240709.xlsx
+++ b/data20240709.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inoue.lab_2021/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14998635-F839-CF49-BFE1-34231CA61135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21387AA-B3D6-254F-A3F6-E9A695BBD96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24080" yWindow="7480" windowWidth="27900" windowHeight="16860" xr2:uid="{BAAEC325-9E8E-F149-91BE-57B7F26D2CA1}"/>
+    <workbookView xWindow="10280" yWindow="2420" windowWidth="27900" windowHeight="16860" xr2:uid="{BAAEC325-9E8E-F149-91BE-57B7F26D2CA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>TIME</t>
     <phoneticPr fontId="3"/>
@@ -68,6 +68,37 @@
   <si>
     <t>Static</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Q5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
   </si>
 </sst>
 </file>
@@ -504,7 +535,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -529,34 +560,34 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16">
